--- a/OpenCart_TestScenario & TastCase .xlsx
+++ b/OpenCart_TestScenario & TastCase .xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\Class\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\Class\Project\OpenCart_ManualTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="323">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -1239,12 +1239,84 @@
     <t>1. Open the Application URL 
 (https://demo.opencart.com) in any supported Browser</t>
   </si>
+  <si>
+    <t>1. User got logged in, taken to 'Account Success' page successfully and proper details got displayed on the page
+2. User is taken to  'Account' page and a confirm email received at the registed email address</t>
+  </si>
+  <si>
+    <t>1. User has not received any email to his registered email address</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-1</t>
+  </si>
+  <si>
+    <t>1. Warning messages got displayed as written in the Expected Results</t>
+  </si>
+  <si>
+    <t>1. User got logged in, taken to 'Account Success' page successfully and proper details got displayed on the page
+2. User is taken to  'Account' page and a confirm email received at the registed email address
+3. 'Yes' option is displayed as selected by default in the Newsletter page</t>
+  </si>
+  <si>
+    <t>1. User got logged in, taken to 'Account Success' page successfully and proper details got displayed on the page
+2. User is taken to  'Account' page and a confirm email received at the registed email address
+3. 'No' option is displayed as selected by default in the Newsletter page</t>
+  </si>
+  <si>
+    <t>1. User is taken to the 'Register Account' page</t>
+  </si>
+  <si>
+    <t>1. Warning messages as specified in the Expected Results got displayed</t>
+  </si>
+  <si>
+    <t>1. Warning message is not getting displayed, instread an Account is getting created with the given invalid phone number</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User got logged in, taken to 'Account Success' page successfully and proper details got displayed on the page
+</t>
+  </si>
+  <si>
+    <t>1. Proper Placeholder texts is displayed in these fields</t>
+  </si>
+  <si>
+    <t>1. Privacy Policy field is not marked with red color * symbol</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-3</t>
+  </si>
+  <si>
+    <t>1. Details as successfully stored in the Database</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-4</t>
+  </si>
+  <si>
+    <t>1. Telephone field is accepting the spaces and no field level warning message is displayed for this field</t>
+  </si>
+  <si>
+    <t>1. No warning message is getting displayed and a simple password is accepted by the fields</t>
+  </si>
+  <si>
+    <t>OPENCART-BUG-5</t>
+  </si>
+  <si>
+    <t>1. Text fields abide to the Client requirements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,8 +1370,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1321,6 +1399,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF76A5AF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,7 +1442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1406,6 +1496,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9054,8 +9153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9067,9 +9166,9 @@
     <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
     <col min="9" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -9129,9 +9228,15 @@
       <c r="G2" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9156,10 +9261,18 @@
       <c r="G3" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="H3" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -9183,9 +9296,15 @@
       <c r="G4" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9210,9 +9329,15 @@
       <c r="G5" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9237,9 +9362,15 @@
       <c r="G6" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="154.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9264,9 +9395,15 @@
       <c r="G7" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9291,9 +9428,15 @@
       <c r="G8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="H8" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="129" thickBot="1" x14ac:dyDescent="0.3">
@@ -9318,9 +9461,15 @@
       <c r="G9" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="H9" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9345,9 +9494,15 @@
       <c r="G10" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="H10" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9372,9 +9527,15 @@
       <c r="G11" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="H11" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9399,10 +9560,18 @@
       <c r="G12" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="H12" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -9426,9 +9595,15 @@
       <c r="G13" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="H13" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9453,9 +9628,15 @@
       <c r="G14" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="H14" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9480,10 +9661,18 @@
       <c r="G15" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="H15" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -9507,9 +9696,15 @@
       <c r="G16" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9534,10 +9729,18 @@
       <c r="G17" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="H17" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -9561,10 +9764,18 @@
       <c r="G18" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="H18" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -9588,9 +9799,15 @@
       <c r="G19" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9838,6 +10055,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9845,8 +10063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9980,7 +10198,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>221</v>
       </c>
@@ -10007,7 +10225,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>225</v>
       </c>
@@ -10061,7 +10279,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>233</v>
       </c>
@@ -10115,7 +10333,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>241</v>
       </c>
@@ -10142,7 +10360,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>245</v>
       </c>
@@ -10196,7 +10414,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>254</v>
       </c>
@@ -10250,7 +10468,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>262</v>
       </c>
@@ -10277,7 +10495,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>266</v>
       </c>
@@ -10304,7 +10522,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>270</v>
       </c>
@@ -10358,7 +10576,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>278</v>
       </c>
